--- a/Tests/files/RSI.xlsx
+++ b/Tests/files/RSI.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gorke\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/esra/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{730D37C2-29D4-42F7-B3C8-83A3DE3C61F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9EF061E-2867-194D-B46C-F63F4C911BF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1125" yWindow="1125" windowWidth="21600" windowHeight="11835" xr2:uid="{C693C989-6054-4B78-A018-DBB3620107CD}"/>
+    <workbookView xWindow="14520" yWindow="0" windowWidth="14280" windowHeight="18000" xr2:uid="{C693C989-6054-4B78-A018-DBB3620107CD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -110,8 +110,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -169,7 +168,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Teması">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -468,387 +467,354 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2">
         <v>44238</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2">
         <v>811.66</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3">
         <v>44239</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3">
         <v>816.12</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="2">
+        <f>B3-B2</f>
         <v>4.4600000000000364</v>
       </c>
-      <c r="D3" s="3">
-        <v>0</v>
-      </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4">
         <v>44243</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4">
         <v>796.22</v>
       </c>
-      <c r="C4" s="3">
-        <v>0</v>
-      </c>
-      <c r="D4" s="3">
-        <v>19.899999999999977</v>
-      </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+      <c r="C4" s="2"/>
+      <c r="D4" s="2">
+        <f>B4-B3</f>
+        <v>-19.899999999999977</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5">
         <v>44244</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5">
         <v>798.15</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="2">
+        <f>B5-B4</f>
         <v>1.92999999999995</v>
       </c>
-      <c r="D5" s="3">
-        <v>0</v>
-      </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6">
         <v>44245</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6">
         <v>787.38</v>
       </c>
-      <c r="C6" s="3">
-        <v>0</v>
-      </c>
-      <c r="D6" s="3">
-        <v>10.769999999999982</v>
-      </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+      <c r="C6" s="2"/>
+      <c r="D6" s="2">
+        <f t="shared" ref="D5:D19" si="0">B6-B5</f>
+        <v>-10.769999999999982</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7">
         <v>44246</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7">
         <v>781.3</v>
       </c>
-      <c r="C7" s="3">
-        <v>0</v>
-      </c>
-      <c r="D7" s="3">
-        <v>6.0800000000000409</v>
-      </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+      <c r="C7" s="2"/>
+      <c r="D7" s="2">
+        <f t="shared" si="0"/>
+        <v>-6.0800000000000409</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8">
         <v>44249</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8">
         <v>714.5</v>
       </c>
-      <c r="C8" s="3">
-        <v>0</v>
-      </c>
-      <c r="D8" s="3">
-        <v>66.799999999999955</v>
-      </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+      <c r="C8" s="2"/>
+      <c r="D8" s="2">
+        <f t="shared" si="0"/>
+        <v>-66.799999999999955</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9">
         <v>44250</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9">
         <v>698.84</v>
       </c>
-      <c r="C9" s="3">
-        <v>0</v>
-      </c>
-      <c r="D9" s="3">
-        <v>15.659999999999968</v>
-      </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+      <c r="C9" s="2"/>
+      <c r="D9" s="2">
+        <f t="shared" si="0"/>
+        <v>-15.659999999999968</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10">
         <v>44251</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10">
         <v>742.02</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="2">
+        <f t="shared" ref="C8:C19" si="1">B10-B9</f>
         <v>43.17999999999995</v>
       </c>
-      <c r="D10" s="3">
-        <v>0</v>
-      </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11">
         <v>44252</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11">
         <v>682.22</v>
       </c>
-      <c r="C11" s="3">
-        <v>0</v>
-      </c>
-      <c r="D11" s="3">
-        <v>59.799999999999955</v>
-      </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
+      <c r="C11" s="2"/>
+      <c r="D11" s="2">
+        <f t="shared" si="0"/>
+        <v>-59.799999999999955</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12">
         <v>44253</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12">
         <v>675.5</v>
       </c>
-      <c r="C12" s="3">
-        <v>0</v>
-      </c>
-      <c r="D12" s="3">
-        <v>6.7200000000000273</v>
-      </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
+      <c r="C12" s="2"/>
+      <c r="D12" s="2">
+        <f t="shared" si="0"/>
+        <v>-6.7200000000000273</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13">
         <v>44256</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13">
         <v>718.43</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="2">
+        <f t="shared" si="1"/>
         <v>42.92999999999995</v>
       </c>
-      <c r="D13" s="3">
-        <v>0</v>
-      </c>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14">
         <v>44257</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14">
         <v>686.44</v>
       </c>
-      <c r="C14" s="3">
-        <v>0</v>
-      </c>
-      <c r="D14" s="3">
-        <v>31.989999999999895</v>
-      </c>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
+      <c r="C14" s="2"/>
+      <c r="D14" s="2">
+        <f t="shared" si="0"/>
+        <v>-31.989999999999895</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15">
         <v>44258</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15">
         <v>653.20000000000005</v>
       </c>
-      <c r="C15" s="3">
-        <v>0</v>
-      </c>
-      <c r="D15" s="3">
-        <v>33.240000000000009</v>
-      </c>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
+      <c r="C15" s="2"/>
+      <c r="D15" s="2">
+        <f t="shared" si="0"/>
+        <v>-33.240000000000009</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16">
         <v>44259</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16">
         <v>621.44000000000005</v>
       </c>
-      <c r="C16" s="3">
-        <v>0</v>
-      </c>
-      <c r="D16" s="3">
-        <v>31.759999999999991</v>
-      </c>
-      <c r="E16" s="4">
+      <c r="C16" s="2"/>
+      <c r="D16" s="2">
+        <f t="shared" si="0"/>
+        <v>-31.759999999999991</v>
+      </c>
+      <c r="E16" s="3">
+        <f xml:space="preserve"> SUM(C3:C16)/14</f>
         <v>6.6071428571428488</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F16" s="3">
+        <f xml:space="preserve"> -SUM(D3:D15)/14</f>
+        <v>17.925714285714271</v>
+      </c>
+      <c r="G16">
+        <f>E16/F16</f>
+        <v>0.36858463500159372</v>
+      </c>
+      <c r="H16" s="4">
+        <f>100-(100/(1+G16))</f>
+        <v>26.931811564665452</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>44260</v>
+      </c>
+      <c r="B17">
+        <v>597.95000000000005</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2">
+        <f t="shared" si="0"/>
+        <v>-23.490000000000009</v>
+      </c>
+      <c r="E17" s="3">
+        <f t="shared" ref="E17:E19" si="2" xml:space="preserve"> SUM(C4:C17)/14</f>
+        <v>6.2885714285714176</v>
+      </c>
+      <c r="F17" s="3">
+        <f t="shared" ref="F17:F19" si="3" xml:space="preserve"> -SUM(D4:D16)/14</f>
         <v>20.194285714285702</v>
       </c>
-      <c r="G16" s="1">
-        <v>0.32717883418222954</v>
-      </c>
-      <c r="H16" s="5">
-        <v>24.65220404029634</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>44260</v>
-      </c>
-      <c r="B17" s="1">
-        <v>597.95000000000005</v>
-      </c>
-      <c r="C17" s="3">
-        <v>0</v>
-      </c>
-      <c r="D17" s="3">
-        <v>23.490000000000009</v>
-      </c>
-      <c r="E17" s="4">
-        <v>6.1352040816326454</v>
-      </c>
-      <c r="F17" s="4">
-        <v>20.42969387755101</v>
-      </c>
-      <c r="G17" s="1">
-        <v>0.3003081748755061</v>
-      </c>
-      <c r="H17" s="5">
-        <v>23.095153954889057</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
+      <c r="G17">
+        <f t="shared" ref="G17:G19" si="4">E17/F17</f>
+        <v>0.31140350877192946</v>
+      </c>
+      <c r="H17" s="4">
+        <f t="shared" ref="H17:H19" si="5">100-(100/(1+G17))</f>
+        <v>23.745819397993287</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18">
         <v>44263</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18">
         <v>563</v>
       </c>
-      <c r="C18" s="3">
-        <v>0</v>
-      </c>
-      <c r="D18" s="3">
-        <v>34.950000000000045</v>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2">
+        <f t="shared" si="0"/>
+        <v>-34.950000000000045</v>
       </c>
       <c r="E18" s="3">
-        <v>5.6969752186588849</v>
+        <f t="shared" si="2"/>
+        <v>6.2885714285714176</v>
       </c>
       <c r="F18" s="3">
-        <v>21.466858600583084</v>
-      </c>
-      <c r="G18" s="1">
-        <v>0.26538467153755524</v>
-      </c>
-      <c r="H18" s="5">
-        <v>20.972647883831968</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
+        <f t="shared" si="3"/>
+        <v>20.450714285714273</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="4"/>
+        <v>0.30749886486675249</v>
+      </c>
+      <c r="H18" s="4">
+        <f t="shared" si="5"/>
+        <v>23.518098036596754</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19">
         <v>44264</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19">
         <v>673.58</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" s="2">
+        <f t="shared" si="1"/>
         <v>110.58000000000004</v>
       </c>
-      <c r="D19" s="3">
-        <v>0</v>
-      </c>
+      <c r="D19" s="2"/>
       <c r="E19" s="3">
-        <v>13.188619845897538</v>
+        <f t="shared" si="2"/>
+        <v>14.049285714285711</v>
       </c>
       <c r="F19" s="3">
-        <v>19.933511557684291</v>
-      </c>
-      <c r="G19" s="1">
-        <v>0.66163053146616191</v>
-      </c>
-      <c r="H19" s="5">
-        <v>39.818149638979214</v>
+        <f t="shared" si="3"/>
+        <v>22.947142857142847</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="4"/>
+        <v>0.61224553321297404</v>
+      </c>
+      <c r="H19" s="4">
+        <f t="shared" si="5"/>
+        <v>37.97470798339608</v>
       </c>
     </row>
   </sheetData>
